--- a/data/women/W_2022_11_Pisek.xlsx
+++ b/data/women/W_2022_11_Pisek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43FF56-67CB-4FA8-88E2-E06DBF498FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9697556-175C-44A2-8227-1E743593E21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7536" yWindow="0" windowWidth="13128" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="-16488" windowWidth="18624" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="3" r:id="rId1"/>
@@ -765,7 +765,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="C39" sqref="B2:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,14 +1802,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="26.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
@@ -1925,7 +1925,7 @@
         <v>35</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H31" si="0">G3-I3</f>
+        <f>G3-I3</f>
         <v>15</v>
       </c>
       <c r="I3" s="2">
@@ -1969,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="0"/>
+        <f>G4-I4</f>
         <v>9</v>
       </c>
       <c r="I4" s="2">
@@ -2013,7 +2013,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f>G5-I5</f>
         <v>19</v>
       </c>
       <c r="I5" s="2">
@@ -2057,7 +2057,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f>G6-I6</f>
         <v>18</v>
       </c>
       <c r="I6" s="2">
@@ -2101,7 +2101,7 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f>G7-I7</f>
         <v>17</v>
       </c>
       <c r="I7" s="2">
@@ -2145,7 +2145,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
+        <f>G8-I8</f>
         <v>22</v>
       </c>
       <c r="I8" s="2">
@@ -2189,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f>G9-I9</f>
         <v>19</v>
       </c>
       <c r="I9" s="2">
@@ -2233,7 +2233,7 @@
         <v>33</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f>G10-I10</f>
         <v>23</v>
       </c>
       <c r="I10" s="2">
@@ -2277,7 +2277,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f>G11-I11</f>
         <v>22</v>
       </c>
       <c r="I11" s="2">
@@ -2321,7 +2321,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f>G12-I12</f>
         <v>18</v>
       </c>
       <c r="I12" s="2">
@@ -2365,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f>G13-I13</f>
         <v>25</v>
       </c>
       <c r="I13" s="2">
@@ -2409,7 +2409,7 @@
         <v>25</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f>G14-I14</f>
         <v>22</v>
       </c>
       <c r="I14" s="2">
@@ -2453,7 +2453,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f>G15-I15</f>
         <v>22</v>
       </c>
       <c r="I15" s="2">
@@ -2497,7 +2497,7 @@
         <v>27</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f>G16-I16</f>
         <v>30</v>
       </c>
       <c r="I16" s="2">
@@ -2541,7 +2541,7 @@
         <v>24</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f>G17-I17</f>
         <v>20</v>
       </c>
       <c r="I17" s="2">
@@ -2569,7 +2569,7 @@
         <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>3</v>
@@ -2585,7 +2585,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f>G18-I18</f>
         <v>17</v>
       </c>
       <c r="I18" s="2">
@@ -2629,7 +2629,7 @@
         <v>25</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f>G19-I19</f>
         <v>23</v>
       </c>
       <c r="I19" s="2">
@@ -2673,7 +2673,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f>G20-I20</f>
         <v>25</v>
       </c>
       <c r="I20" s="2">
@@ -2717,7 +2717,7 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f>G21-I21</f>
         <v>24</v>
       </c>
       <c r="I21" s="2">
@@ -2761,7 +2761,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f>G22-I22</f>
         <v>25</v>
       </c>
       <c r="I22" s="2">
@@ -2805,7 +2805,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f>G23-I23</f>
         <v>29</v>
       </c>
       <c r="I23" s="2">
@@ -2849,7 +2849,7 @@
         <v>24</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f>G24-I24</f>
         <v>28</v>
       </c>
       <c r="I24" s="2">
@@ -2893,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f>G25-I25</f>
         <v>31</v>
       </c>
       <c r="I25" s="2">
@@ -2937,7 +2937,7 @@
         <v>22</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f>G26-I26</f>
         <v>30</v>
       </c>
       <c r="I26" s="2">
@@ -2981,7 +2981,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f>G27-I27</f>
         <v>26</v>
       </c>
       <c r="I27" s="2">
@@ -3025,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f>G28-I28</f>
         <v>28</v>
       </c>
       <c r="I28" s="2">
@@ -3069,7 +3069,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f>G29-I29</f>
         <v>29</v>
       </c>
       <c r="I29" s="2">
@@ -3113,7 +3113,7 @@
         <v>24</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f>G30-I30</f>
         <v>30</v>
       </c>
       <c r="I30" s="2">
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f>G31-I31</f>
         <v>32</v>
       </c>
       <c r="I31" s="2">
@@ -3240,7 +3240,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" ref="G33:G39" si="1">H33-I33</f>
+        <f>H33-I33</f>
         <v>26</v>
       </c>
       <c r="H33" s="6">
@@ -3283,7 +3283,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="1"/>
+        <f>H34-I34</f>
         <v>32</v>
       </c>
       <c r="H34" s="6">
@@ -3326,7 +3326,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="1"/>
+        <f>H35-I35</f>
         <v>34</v>
       </c>
       <c r="H35" s="6">
@@ -3369,7 +3369,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="1"/>
+        <f>H36-I36</f>
         <v>31</v>
       </c>
       <c r="H36" s="6">
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="1"/>
+        <f>H37-I37</f>
         <v>30</v>
       </c>
       <c r="H37" s="6">
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="1"/>
+        <f>H38-I38</f>
         <v>35</v>
       </c>
       <c r="H38" s="6">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="1"/>
+        <f>H39-I39</f>
         <v>35</v>
       </c>
       <c r="H39" s="6">
@@ -3733,7 +3733,11 @@
       <c r="K80" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}"/>
+  <autoFilter ref="A1:N1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N39">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3743,8 +3747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4169,7 +4173,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -5070,7 +5074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969A5A82-EE21-4DB1-8D92-A9234FC8F241}">
   <dimension ref="A1:K254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/data/women/W_2022_11_Pisek.xlsx
+++ b/data/women/W_2022_11_Pisek.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9697556-175C-44A2-8227-1E743593E21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFDBADF-17AB-4C3B-ADF7-9B4ECE602254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="-16488" windowWidth="18624" windowHeight="15420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="-10452" windowWidth="23040" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="3" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="1" r:id="rId3"/>
-    <sheet name="pools" sheetId="6" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="7" r:id="rId5"/>
+    <sheet name="total" sheetId="8" r:id="rId1"/>
+    <sheet name="initiation" sheetId="3" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="1" r:id="rId4"/>
+    <sheet name="pools" sheetId="6" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$I$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$I$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3064" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -342,6 +344,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -482,6 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,11 +767,2402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9ABE8D-EFFB-4E59-8507-433A16014B24}">
+  <dimension ref="A1:Q80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1">
+        <v>38739</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="9">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K2" s="7">
+        <v>27</v>
+      </c>
+      <c r="L2" s="7">
+        <f>K2-M2</f>
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <v>15</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="31">
+        <f>P2/MAX($P$2:$P$39)</f>
+        <v>0.47368421052631576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8">
+        <f>I3/7</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>35</v>
+      </c>
+      <c r="L3" s="7">
+        <f>K3-M3</f>
+        <v>9</v>
+      </c>
+      <c r="M3" s="2">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="31">
+        <f t="shared" ref="Q3:Q39" si="0">P3/MAX($P$2:$P$39)</f>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>40143</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K4" s="7">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7">
+        <f>K4-M4</f>
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="31">
+        <f t="shared" si="0"/>
+        <v>0.63157894736842102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>37371</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K5" s="7">
+        <v>29</v>
+      </c>
+      <c r="L5" s="7">
+        <f>K5-M5</f>
+        <v>19</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="31">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>35547</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8">
+        <f>I6/7</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>35</v>
+      </c>
+      <c r="L6" s="7">
+        <f>K6-M6</f>
+        <v>15</v>
+      </c>
+      <c r="M6" s="2">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="31">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1">
+        <v>39194</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K7" s="7">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7">
+        <f>K7-M7</f>
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="31">
+        <f t="shared" si="0"/>
+        <v>0.55263157894736847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6</v>
+      </c>
+      <c r="J8" s="9">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7">
+        <f>K8-M8</f>
+        <v>22</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="31">
+        <f t="shared" si="0"/>
+        <v>0.26315789473684209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K9" s="6">
+        <f>L9-M9</f>
+        <v>27</v>
+      </c>
+      <c r="L9" s="6">
+        <v>17</v>
+      </c>
+      <c r="M9" s="10">
+        <v>-10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9">
+        <v>31</v>
+      </c>
+      <c r="P9">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="31">
+        <f t="shared" si="0"/>
+        <v>0.81578947368421051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1">
+        <v>33420</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <f>L10-M10</f>
+        <v>30</v>
+      </c>
+      <c r="L10" s="6">
+        <v>14</v>
+      </c>
+      <c r="M10" s="10">
+        <v>-16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="31">
+        <f t="shared" si="0"/>
+        <v>0.94736842105263153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>36388</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <f>L11-M11</f>
+        <v>34</v>
+      </c>
+      <c r="L11" s="6">
+        <v>19</v>
+      </c>
+      <c r="M11" s="10">
+        <v>-15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>34</v>
+      </c>
+      <c r="P11">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" si="0"/>
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1">
+        <v>37934</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="8">
+        <f>I12/6</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <f>K12-M12</f>
+        <v>19</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="31">
+        <f t="shared" si="0"/>
+        <v>0.15789473684210525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1">
+        <v>34429</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K13" s="7">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7">
+        <f>K13-M13</f>
+        <v>30</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.76315789473684215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>34902</v>
+      </c>
+      <c r="I14" s="6">
+        <v>4</v>
+      </c>
+      <c r="J14" s="9">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="K14" s="7">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7">
+        <f>K14-M14</f>
+        <v>22</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="0"/>
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>35537</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="7">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7">
+        <f>K15-M15</f>
+        <v>24</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>20</v>
+      </c>
+      <c r="P15">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="0"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1">
+        <v>39520</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K16" s="7">
+        <v>27</v>
+      </c>
+      <c r="L16" s="7">
+        <f>K16-M16</f>
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16">
+        <v>22</v>
+      </c>
+      <c r="P16">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" si="0"/>
+        <v>0.57894736842105265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1">
+        <v>38660</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K17" s="6">
+        <f>L17-M17</f>
+        <v>32</v>
+      </c>
+      <c r="L17" s="6">
+        <v>20</v>
+      </c>
+      <c r="M17" s="10">
+        <v>-12</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17">
+        <v>33</v>
+      </c>
+      <c r="P17">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="31">
+        <f t="shared" si="0"/>
+        <v>0.86842105263157898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1">
+        <v>39307</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K18" s="6">
+        <f>L18-M18</f>
+        <v>26</v>
+      </c>
+      <c r="L18" s="6">
+        <v>15</v>
+      </c>
+      <c r="M18" s="10">
+        <v>-11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="31">
+        <f t="shared" si="0"/>
+        <v>0.84210526315789469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>56</v>
+      </c>
+      <c r="H19" s="1">
+        <v>36557</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="9">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K19" s="7">
+        <v>20</v>
+      </c>
+      <c r="L19" s="7">
+        <f>K19-M19</f>
+        <v>28</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-8</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>27</v>
+      </c>
+      <c r="P19">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="0"/>
+        <v>0.71052631578947367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>39</v>
+      </c>
+      <c r="H20" s="1">
+        <v>38901</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K20" s="6">
+        <f>L20-M20</f>
+        <v>31</v>
+      </c>
+      <c r="L20" s="6">
+        <v>14</v>
+      </c>
+      <c r="M20" s="10">
+        <v>-17</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20">
+        <v>35</v>
+      </c>
+      <c r="P20">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="31">
+        <f t="shared" si="0"/>
+        <v>0.92105263157894735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>44</v>
+      </c>
+      <c r="H21" s="1">
+        <v>33403</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5</v>
+      </c>
+      <c r="J21" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K21" s="7">
+        <v>27</v>
+      </c>
+      <c r="L21" s="7">
+        <f>K21-M21</f>
+        <v>18</v>
+      </c>
+      <c r="M21" s="2">
+        <v>9</v>
+      </c>
+      <c r="N21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21">
+        <v>11</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="31">
+        <f t="shared" si="0"/>
+        <v>0.31578947368421051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22" s="9">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K22" s="7">
+        <v>25</v>
+      </c>
+      <c r="L22" s="7">
+        <f>K22-M22</f>
+        <v>22</v>
+      </c>
+      <c r="M22" s="2">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="0"/>
+        <v>0.44736842105263158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K23" s="7">
+        <v>31</v>
+      </c>
+      <c r="L23" s="7">
+        <f>K23-M23</f>
+        <v>22</v>
+      </c>
+      <c r="M23" s="2">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="31">
+        <f t="shared" si="0"/>
+        <v>0.18421052631578946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I24" s="6">
+        <v>3</v>
+      </c>
+      <c r="J24" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>25</v>
+      </c>
+      <c r="L24" s="7">
+        <f>K24-M24</f>
+        <v>23</v>
+      </c>
+      <c r="M24" s="2">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>18</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="31">
+        <f t="shared" si="0"/>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I25" s="6">
+        <v>3</v>
+      </c>
+      <c r="J25" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K25" s="7">
+        <v>24</v>
+      </c>
+      <c r="L25" s="7">
+        <f>K25-M25</f>
+        <v>28</v>
+      </c>
+      <c r="M25" s="2">
+        <v>-4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="31">
+        <f t="shared" si="0"/>
+        <v>0.60526315789473684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I26">
+        <v>6</v>
+      </c>
+      <c r="J26" s="8">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K26" s="7">
+        <v>33</v>
+      </c>
+      <c r="L26" s="7">
+        <f>K26-M26</f>
+        <v>17</v>
+      </c>
+      <c r="M26" s="2">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="31">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>35194</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K27" s="7">
+        <v>33</v>
+      </c>
+      <c r="L27" s="7">
+        <f>K27-M27</f>
+        <v>23</v>
+      </c>
+      <c r="M27" s="2">
+        <v>10</v>
+      </c>
+      <c r="N27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27">
+        <v>9</v>
+      </c>
+      <c r="P27">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="31">
+        <f t="shared" si="0"/>
+        <v>0.28947368421052633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28" s="8">
+        <f>I28/6</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="7">
+        <v>27</v>
+      </c>
+      <c r="L28" s="7">
+        <f>K28-M28</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="2">
+        <v>18</v>
+      </c>
+      <c r="N28" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="31">
+        <f t="shared" si="0"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>36211</v>
+      </c>
+      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="J29" s="8">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K29" s="7">
+        <v>34</v>
+      </c>
+      <c r="L29" s="7">
+        <f>K29-M29</f>
+        <v>18</v>
+      </c>
+      <c r="M29" s="2">
+        <v>16</v>
+      </c>
+      <c r="N29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="31">
+        <f t="shared" si="0"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1">
+        <v>38983</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3</v>
+      </c>
+      <c r="J30" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>24</v>
+      </c>
+      <c r="L30" s="7">
+        <f>K30-M30</f>
+        <v>20</v>
+      </c>
+      <c r="M30" s="2">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="31">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>36</v>
+      </c>
+      <c r="H31" s="1">
+        <v>38458</v>
+      </c>
+      <c r="I31" s="6">
+        <v>2</v>
+      </c>
+      <c r="J31" s="9">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K31" s="7">
+        <v>26</v>
+      </c>
+      <c r="L31" s="7">
+        <f>K31-M31</f>
+        <v>26</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="31">
+        <f t="shared" si="0"/>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>999</v>
+      </c>
+      <c r="H32" s="1">
+        <v>36101</v>
+      </c>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <f>L32-M32</f>
+        <v>35</v>
+      </c>
+      <c r="L32" s="6">
+        <v>14</v>
+      </c>
+      <c r="M32" s="10">
+        <v>-21</v>
+      </c>
+      <c r="N32" t="s">
+        <v>14</v>
+      </c>
+      <c r="O32">
+        <v>37</v>
+      </c>
+      <c r="P32">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="31">
+        <f t="shared" si="0"/>
+        <v>0.97368421052631582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>39166</v>
+      </c>
+      <c r="I33" s="6">
+        <v>3</v>
+      </c>
+      <c r="J33" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="7">
+        <v>23</v>
+      </c>
+      <c r="L33" s="7">
+        <f>K33-M33</f>
+        <v>25</v>
+      </c>
+      <c r="M33" s="2">
+        <v>-2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>19</v>
+      </c>
+      <c r="P33">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="31">
+        <f t="shared" si="0"/>
+        <v>0.52631578947368418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>70</v>
+      </c>
+      <c r="H34" s="1">
+        <v>34153</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2</v>
+      </c>
+      <c r="J34" s="9">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K34" s="7">
+        <v>28</v>
+      </c>
+      <c r="L34" s="7">
+        <f>K34-M34</f>
+        <v>29</v>
+      </c>
+      <c r="M34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34">
+        <v>28</v>
+      </c>
+      <c r="P34">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="31">
+        <f t="shared" si="0"/>
+        <v>0.73684210526315785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>27</v>
+      </c>
+      <c r="H35" s="1">
+        <v>38359</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2</v>
+      </c>
+      <c r="J35" s="9">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K35" s="7">
+        <v>19</v>
+      </c>
+      <c r="L35" s="7">
+        <f>K35-M35</f>
+        <v>32</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-13</v>
+      </c>
+      <c r="N35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35">
+        <v>30</v>
+      </c>
+      <c r="P35">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="31">
+        <f t="shared" si="0"/>
+        <v>0.78947368421052633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I36" s="6">
+        <v>5</v>
+      </c>
+      <c r="J36" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K36" s="7">
+        <v>32</v>
+      </c>
+      <c r="L36" s="7">
+        <f>K36-M36</f>
+        <v>25</v>
+      </c>
+      <c r="M36" s="2">
+        <v>7</v>
+      </c>
+      <c r="N36" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36">
+        <v>12</v>
+      </c>
+      <c r="P36">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="31">
+        <f t="shared" si="0"/>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
+      </c>
+      <c r="H37" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I37" s="6">
+        <v>3</v>
+      </c>
+      <c r="J37" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K37" s="7">
+        <v>22</v>
+      </c>
+      <c r="L37" s="7">
+        <f>K37-M37</f>
+        <v>30</v>
+      </c>
+      <c r="M37" s="2">
+        <v>-8</v>
+      </c>
+      <c r="N37" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37">
+        <v>25</v>
+      </c>
+      <c r="P37">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="31">
+        <f t="shared" si="0"/>
+        <v>0.65789473684210531</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>33</v>
+      </c>
+      <c r="H38" s="1">
+        <v>39056</v>
+      </c>
+      <c r="I38" s="6">
+        <v>3</v>
+      </c>
+      <c r="J38" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="K38" s="7">
+        <v>21</v>
+      </c>
+      <c r="L38" s="7">
+        <f>K38-M38</f>
+        <v>17</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>17</v>
+      </c>
+      <c r="P38">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="31">
+        <f t="shared" si="0"/>
+        <v>0.36842105263157893</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39" s="1">
+        <v>38375</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <f>L39-M39</f>
+        <v>35</v>
+      </c>
+      <c r="L39" s="6">
+        <v>12</v>
+      </c>
+      <c r="M39" s="10">
+        <v>-23</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39">
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="5"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="5"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="5"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="5"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="5"/>
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="5"/>
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="5"/>
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="5"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="5"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="5"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="5"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="5"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="5"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="5"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="5"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="5"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="5"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="5"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="5"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="5"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="5"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{8A9ABE8D-EFFB-4E59-8507-433A16014B24}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BBEBEA-F762-4802-85D1-A26CCF5AB9BF}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="B2:C39"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1798,12 +4195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:J39"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,33 +4256,33 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8">
-        <f>E2/7</f>
-        <v>1</v>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G2" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H2" s="7">
         <f>G2-I2</f>
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>26</v>
+        <v>-3</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -1903,13 +4300,13 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -1926,10 +4323,10 @@
       </c>
       <c r="H3" s="7">
         <f>G3-I3</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
         <v>13</v>
@@ -1947,10 +4344,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1958,22 +4355,22 @@
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8">
-        <f>E4/6</f>
-        <v>1</v>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G4" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
         <f>G4-I4</f>
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2">
-        <v>18</v>
+        <v>-5</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -1991,33 +4388,33 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="7">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8">
-        <f>E5/6</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>30</v>
       </c>
       <c r="H5" s="7">
         <f>G5-I5</f>
         <v>19</v>
       </c>
       <c r="I5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -2035,10 +4432,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2046,22 +4443,22 @@
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>6</v>
+      <c r="E6" s="2">
+        <v>7</v>
       </c>
       <c r="F6" s="8">
-        <f>6/7</f>
-        <v>0.8571428571428571</v>
+        <f>E6/7</f>
+        <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <f>G6-I6</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -2079,10 +4476,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2090,22 +4487,22 @@
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8">
-        <f>6/7</f>
-        <v>0.8571428571428571</v>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G7" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <f>G7-I7</f>
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>13</v>
@@ -2167,36 +4564,35 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="9">
-        <f>5/6</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G9" s="7">
-        <v>29</v>
-      </c>
-      <c r="H9" s="7">
-        <f>G9-I9</f>
-        <v>19</v>
-      </c>
-      <c r="I9" s="2">
-        <v>10</v>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G9" s="6">
+        <f>H9-I9</f>
+        <v>27</v>
+      </c>
+      <c r="H9" s="6">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10">
+        <v>-10</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="1">
         <v>44871</v>
@@ -2211,36 +4607,35 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="9">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G10" s="7">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7">
-        <f>G10-I10</f>
-        <v>23</v>
-      </c>
-      <c r="I10" s="2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f>H10-I10</f>
+        <v>30</v>
+      </c>
+      <c r="H10" s="6">
+        <v>14</v>
+      </c>
+      <c r="I10" s="10">
+        <v>-16</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" s="1">
         <v>44871</v>
@@ -2255,36 +4650,35 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="9">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G11" s="7">
-        <v>31</v>
-      </c>
-      <c r="H11" s="7">
-        <f>G11-I11</f>
-        <v>22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>9</v>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G11" s="6">
+        <f>H11-I11</f>
+        <v>34</v>
+      </c>
+      <c r="H11" s="6">
+        <v>19</v>
+      </c>
+      <c r="I11" s="10">
+        <v>-15</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1">
         <v>44871</v>
@@ -2299,33 +4693,33 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
+        <f>E12/6</f>
+        <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <f>G12-I12</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
@@ -2343,33 +4737,33 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G13" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <f>G13-I13</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -2387,13 +4781,13 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>3</v>
@@ -2402,18 +4796,18 @@
         <v>4</v>
       </c>
       <c r="F14" s="9">
-        <f>4/6</f>
-        <v>0.66666666666666663</v>
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G14" s="7">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <f>G14-I14</f>
         <v>22</v>
       </c>
       <c r="I14" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>13</v>
@@ -2431,33 +4825,33 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="9">
-        <f>4/7</f>
-        <v>0.5714285714285714</v>
+        <f>3/6</f>
+        <v>0.5</v>
       </c>
       <c r="G15" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <f>G15-I15</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" s="2">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="J15" t="s">
         <v>13</v>
@@ -2475,33 +4869,33 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="9">
-        <f>4/7</f>
-        <v>0.5714285714285714</v>
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G16" s="7">
         <v>27</v>
       </c>
       <c r="H16" s="7">
         <f>G16-I16</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J16" t="s">
         <v>13</v>
@@ -2519,341 +4913,338 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <f>H17-I17</f>
+        <v>32</v>
+      </c>
+      <c r="H17" s="6">
+        <v>20</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-12</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <f>H18-I18</f>
+        <v>26</v>
+      </c>
+      <c r="H18" s="6">
+        <v>15</v>
+      </c>
+      <c r="I18" s="10">
+        <v>-11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="9">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G19" s="7">
+        <v>20</v>
+      </c>
+      <c r="H19" s="7">
+        <f>G19-I19</f>
+        <v>28</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G20" s="6">
+        <f>H20-I20</f>
+        <v>31</v>
+      </c>
+      <c r="H20" s="6">
+        <v>14</v>
+      </c>
+      <c r="I20" s="10">
+        <v>-17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G21" s="7">
+        <v>27</v>
+      </c>
+      <c r="H21" s="7">
+        <f>G21-I21</f>
+        <v>18</v>
+      </c>
+      <c r="I21" s="2">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G22" s="7">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7">
+        <f>G22-I22</f>
+        <v>22</v>
+      </c>
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G23" s="7">
+        <v>31</v>
+      </c>
+      <c r="H23" s="7">
+        <f>G23-I23</f>
+        <v>22</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="9">
         <f>3/6</f>
         <v>0.5</v>
       </c>
-      <c r="G17" s="7">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <f>G17-I17</f>
-        <v>20</v>
-      </c>
-      <c r="I17" s="2">
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-      <c r="F18" s="9">
-        <f>3/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>21</v>
-      </c>
-      <c r="H18" s="7">
-        <f>G18-I18</f>
-        <v>17</v>
-      </c>
-      <c r="I18" s="2">
-        <v>4</v>
-      </c>
-      <c r="J18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="9">
-        <f>3/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="G24" s="7">
         <v>25</v>
-      </c>
-      <c r="H19" s="7">
-        <f>G19-I19</f>
-        <v>23</v>
-      </c>
-      <c r="I19" s="2">
-        <v>2</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>3</v>
-      </c>
-      <c r="F20" s="9">
-        <f>3/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="7">
-        <v>23</v>
-      </c>
-      <c r="H20" s="7">
-        <f>G20-I20</f>
-        <v>25</v>
-      </c>
-      <c r="I20" s="2">
-        <v>-2</v>
-      </c>
-      <c r="J20" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3</v>
-      </c>
-      <c r="F21" s="9">
-        <f>3/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="G21" s="7">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <f>G21-I21</f>
-        <v>24</v>
-      </c>
-      <c r="I21" s="2">
-        <v>-5</v>
-      </c>
-      <c r="J21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9">
-        <f>3/7</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G22" s="7">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7">
-        <f>G22-I22</f>
-        <v>25</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-      <c r="J22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L22" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6">
-        <v>3</v>
-      </c>
-      <c r="F23" s="9">
-        <f>3/7</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G23" s="7">
-        <v>27</v>
-      </c>
-      <c r="H23" s="7">
-        <f>G23-I23</f>
-        <v>29</v>
-      </c>
-      <c r="I23" s="2">
-        <v>-2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6">
-        <v>3</v>
-      </c>
-      <c r="F24" s="9">
-        <f>3/7</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G24" s="7">
-        <v>24</v>
       </c>
       <c r="H24" s="7">
         <f>G24-I24</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I24" s="2">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>13</v>
@@ -2871,10 +5262,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2890,14 +5281,14 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="G25" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H25" s="7">
         <f>G25-I25</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I25" s="2">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
@@ -2915,514 +5306,519 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26" s="8">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G26" s="7">
+        <v>33</v>
+      </c>
+      <c r="H26" s="7">
+        <f>G26-I26</f>
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G27" s="7">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7">
+        <f>G27-I27</f>
+        <v>23</v>
+      </c>
+      <c r="I27" s="2">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28" s="8">
+        <f>E28/6</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>27</v>
+      </c>
+      <c r="H28" s="7">
+        <f>G28-I28</f>
+        <v>9</v>
+      </c>
+      <c r="I28" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="8">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G29" s="7">
+        <v>34</v>
+      </c>
+      <c r="H29" s="7">
+        <f>G29-I29</f>
+        <v>18</v>
+      </c>
+      <c r="I29" s="2">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7">
+        <f>G30-I30</f>
+        <v>20</v>
+      </c>
+      <c r="I30" s="2">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G31" s="7">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7">
+        <f>G31-I31</f>
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>67</v>
+      </c>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <f>H32-I32</f>
+        <v>35</v>
+      </c>
+      <c r="H32" s="6">
+        <v>14</v>
+      </c>
+      <c r="I32" s="10">
+        <v>-21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L32" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>23</v>
+      </c>
+      <c r="H33" s="7">
+        <f>G33-I33</f>
+        <v>25</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>67</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G34" s="7">
+        <v>28</v>
+      </c>
+      <c r="H34" s="7">
+        <f>G34-I34</f>
+        <v>29</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L34" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" t="s">
+        <v>67</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G35" s="7">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7">
+        <f>G35-I35</f>
+        <v>32</v>
+      </c>
+      <c r="I35" s="2">
+        <v>-13</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="9">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G36" s="7">
+        <v>32</v>
+      </c>
+      <c r="H36" s="7">
+        <f>G36-I36</f>
+        <v>25</v>
+      </c>
+      <c r="I36" s="2">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="1">
+        <v>44871</v>
+      </c>
+      <c r="L36" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C37" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3</v>
+      </c>
+      <c r="F37" s="9">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G37" s="7">
         <v>22</v>
       </c>
-      <c r="H26" s="7">
-        <f>G26-I26</f>
+      <c r="H37" s="7">
+        <f>G37-I37</f>
         <v>30</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I37" s="2">
         <v>-8</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J37" t="s">
         <v>13</v>
-      </c>
-      <c r="K26" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L26" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6">
-        <v>2</v>
-      </c>
-      <c r="F27" s="9">
-        <f>2/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G27" s="7">
-        <v>26</v>
-      </c>
-      <c r="H27" s="7">
-        <f>G27-I27</f>
-        <v>26</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9">
-        <f>2/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G28" s="7">
-        <v>20</v>
-      </c>
-      <c r="H28" s="7">
-        <f>G28-I28</f>
-        <v>28</v>
-      </c>
-      <c r="I28" s="2">
-        <v>-8</v>
-      </c>
-      <c r="J28" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9">
-        <f>2/7</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G29" s="7">
-        <v>28</v>
-      </c>
-      <c r="H29" s="7">
-        <f>G29-I29</f>
-        <v>29</v>
-      </c>
-      <c r="I29" s="2">
-        <v>-1</v>
-      </c>
-      <c r="J29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="9">
-        <f>2/7</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G30" s="7">
-        <v>24</v>
-      </c>
-      <c r="H30" s="7">
-        <f>G30-I30</f>
-        <v>30</v>
-      </c>
-      <c r="I30" s="2">
-        <v>-6</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" s="9">
-        <f>2/7</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G31" s="7">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <f>G31-I31</f>
-        <v>32</v>
-      </c>
-      <c r="I31" s="2">
-        <v>-13</v>
-      </c>
-      <c r="J31" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L31" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G32" s="6">
-        <f>H32-I32</f>
-        <v>27</v>
-      </c>
-      <c r="H32" s="6">
-        <v>17</v>
-      </c>
-      <c r="I32" s="10">
-        <v>-10</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K32" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L32" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="G33" s="6">
-        <f>H33-I33</f>
-        <v>26</v>
-      </c>
-      <c r="H33" s="6">
-        <v>15</v>
-      </c>
-      <c r="I33" s="10">
-        <v>-11</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
-      <c r="K33" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L33" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" t="s">
-        <v>67</v>
-      </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G34" s="6">
-        <f>H34-I34</f>
-        <v>32</v>
-      </c>
-      <c r="H34" s="6">
-        <v>20</v>
-      </c>
-      <c r="I34" s="10">
-        <v>-12</v>
-      </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L34" t="s">
-        <v>17</v>
-      </c>
-      <c r="M34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G35" s="6">
-        <f>H35-I35</f>
-        <v>34</v>
-      </c>
-      <c r="H35" s="6">
-        <v>19</v>
-      </c>
-      <c r="I35" s="10">
-        <v>-15</v>
-      </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K35" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="G36" s="6">
-        <f>H36-I36</f>
-        <v>31</v>
-      </c>
-      <c r="H36" s="6">
-        <v>14</v>
-      </c>
-      <c r="I36" s="10">
-        <v>-17</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="1">
-        <v>44871</v>
-      </c>
-      <c r="L36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <f>H37-I37</f>
-        <v>30</v>
-      </c>
-      <c r="H37" s="6">
-        <v>14</v>
-      </c>
-      <c r="I37" s="10">
-        <v>-16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>14</v>
       </c>
       <c r="K37" s="1">
         <v>44871</v>
@@ -3437,35 +5833,36 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F38" s="9">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <f>H38-I38</f>
-        <v>35</v>
-      </c>
-      <c r="H38" s="6">
-        <v>14</v>
-      </c>
-      <c r="I38" s="10">
-        <v>-21</v>
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>21</v>
+      </c>
+      <c r="H38" s="7">
+        <f>G38-I38</f>
+        <v>17</v>
+      </c>
+      <c r="I38" s="2">
+        <v>4</v>
       </c>
       <c r="J38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K38" s="1">
         <v>44871</v>
@@ -3735,7 +6132,7 @@
   </sheetData>
   <autoFilter ref="A1:N1" xr:uid="{386D87D5-D02E-4FB7-9149-051B0619C02A}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N39">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3743,12 +6140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,19 +6187,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>37371</v>
+        <v>38739</v>
       </c>
       <c r="F2" s="1">
         <v>44871</v>
@@ -3814,24 +6211,24 @@
         <v>67</v>
       </c>
       <c r="I2" s="14">
-        <v>37370</v>
+        <v>38738</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>35547</v>
+        <v>37414</v>
       </c>
       <c r="F3" s="1">
         <v>44871</v>
@@ -3843,15 +6240,15 @@
         <v>67</v>
       </c>
       <c r="I3" s="14">
-        <v>35546</v>
+        <v>37413</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -3860,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>37444</v>
+        <v>40143</v>
       </c>
       <c r="F4" s="1">
         <v>44871</v>
@@ -3872,24 +6269,24 @@
         <v>67</v>
       </c>
       <c r="I4" s="14">
-        <v>37443</v>
+        <v>40142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>36211</v>
+        <v>37371</v>
       </c>
       <c r="F5" s="1">
         <v>44871</v>
@@ -3901,24 +6298,24 @@
         <v>67</v>
       </c>
       <c r="I5" s="14">
-        <v>36210</v>
+        <v>37370</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>37414</v>
+        <v>35547</v>
       </c>
       <c r="F6" s="1">
         <v>44871</v>
@@ -3930,15 +6327,15 @@
         <v>67</v>
       </c>
       <c r="I6" s="14">
-        <v>37413</v>
+        <v>35546</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -3947,7 +6344,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>37934</v>
+        <v>39194</v>
       </c>
       <c r="F7" s="1">
         <v>44871</v>
@@ -3959,24 +6356,24 @@
         <v>67</v>
       </c>
       <c r="I7" s="14">
-        <v>37933</v>
+        <v>39193</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>33018</v>
+        <v>36617</v>
       </c>
       <c r="F8" s="1">
         <v>44871</v>
@@ -3988,24 +6385,24 @@
         <v>67</v>
       </c>
       <c r="I8" s="14">
-        <v>33017</v>
+        <v>36616</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>34902</v>
+        <v>32455</v>
       </c>
       <c r="F9" s="1">
         <v>44871</v>
@@ -4017,24 +6414,24 @@
         <v>67</v>
       </c>
       <c r="I9" s="14">
-        <v>34901</v>
+        <v>32454</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>36325</v>
+        <v>33420</v>
       </c>
       <c r="F10" s="1">
         <v>44871</v>
@@ -4046,24 +6443,24 @@
         <v>67</v>
       </c>
       <c r="I10" s="14">
-        <v>36324</v>
+        <v>33419</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>36617</v>
+        <v>36388</v>
       </c>
       <c r="F11" s="1">
         <v>44871</v>
@@ -4075,24 +6472,24 @@
         <v>67</v>
       </c>
       <c r="I11" s="14">
-        <v>36616</v>
+        <v>36387</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>35194</v>
+        <v>37934</v>
       </c>
       <c r="F12" s="1">
         <v>44871</v>
@@ -4104,24 +6501,24 @@
         <v>67</v>
       </c>
       <c r="I12" s="14">
-        <v>35193</v>
+        <v>37933</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>33403</v>
+        <v>34429</v>
       </c>
       <c r="F13" s="1">
         <v>44871</v>
@@ -4133,15 +6530,15 @@
         <v>67</v>
       </c>
       <c r="I13" s="14">
-        <v>33402</v>
+        <v>34428</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -4150,7 +6547,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>37171</v>
+        <v>34902</v>
       </c>
       <c r="F14" s="1">
         <v>44871</v>
@@ -4162,24 +6559,24 @@
         <v>67</v>
       </c>
       <c r="I14" s="14">
-        <v>37170</v>
+        <v>34901</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>39056</v>
+        <v>35537</v>
       </c>
       <c r="F15" s="1">
         <v>44871</v>
@@ -4191,24 +6588,24 @@
         <v>67</v>
       </c>
       <c r="I15" s="14">
-        <v>39055</v>
+        <v>35536</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>34911</v>
+        <v>39520</v>
       </c>
       <c r="F16" s="1">
         <v>44871</v>
@@ -4220,24 +6617,24 @@
         <v>67</v>
       </c>
       <c r="I16" s="14">
-        <v>34910</v>
+        <v>39519</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>35537</v>
+        <v>38660</v>
       </c>
       <c r="F17" s="1">
         <v>44871</v>
@@ -4249,24 +6646,24 @@
         <v>67</v>
       </c>
       <c r="I17" s="14">
-        <v>35536</v>
+        <v>38659</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>37401</v>
+        <v>39307</v>
       </c>
       <c r="F18" s="1">
         <v>44871</v>
@@ -4278,24 +6675,24 @@
         <v>67</v>
       </c>
       <c r="I18" s="14">
-        <v>37400</v>
+        <v>39306</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="1">
-        <v>38739</v>
+        <v>36557</v>
       </c>
       <c r="F19" s="1">
         <v>44871</v>
@@ -4307,24 +6704,24 @@
         <v>67</v>
       </c>
       <c r="I19" s="14">
-        <v>38738</v>
+        <v>36556</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>38983</v>
+        <v>38901</v>
       </c>
       <c r="F20" s="1">
         <v>44871</v>
@@ -4336,24 +6733,24 @@
         <v>67</v>
       </c>
       <c r="I20" s="14">
-        <v>38982</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>39166</v>
+        <v>33403</v>
       </c>
       <c r="F21" s="1">
         <v>44871</v>
@@ -4365,24 +6762,24 @@
         <v>67</v>
       </c>
       <c r="I21" s="14">
-        <v>39165</v>
+        <v>33402</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>39194</v>
+        <v>37401</v>
       </c>
       <c r="F22" s="1">
         <v>44871</v>
@@ -4394,24 +6791,24 @@
         <v>67</v>
       </c>
       <c r="I22" s="14">
-        <v>39193</v>
+        <v>37400</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>39520</v>
+        <v>33018</v>
       </c>
       <c r="F23" s="1">
         <v>44871</v>
@@ -4423,24 +6820,24 @@
         <v>67</v>
       </c>
       <c r="I23" s="14">
-        <v>39519</v>
+        <v>33017</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>36310</v>
+        <v>34911</v>
       </c>
       <c r="F24" s="1">
         <v>44871</v>
@@ -4452,15 +6849,15 @@
         <v>67</v>
       </c>
       <c r="I24" s="14">
-        <v>36309</v>
+        <v>34910</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -4469,7 +6866,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>40143</v>
+        <v>36310</v>
       </c>
       <c r="F25" s="1">
         <v>44871</v>
@@ -4481,24 +6878,24 @@
         <v>67</v>
       </c>
       <c r="I25" s="14">
-        <v>40142</v>
+        <v>36309</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>38143</v>
+        <v>37444</v>
       </c>
       <c r="F26" s="1">
         <v>44871</v>
@@ -4510,24 +6907,24 @@
         <v>67</v>
       </c>
       <c r="I26" s="14">
-        <v>38142</v>
+        <v>37443</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>38458</v>
+        <v>35194</v>
       </c>
       <c r="F27" s="1">
         <v>44871</v>
@@ -4539,24 +6936,24 @@
         <v>67</v>
       </c>
       <c r="I27" s="14">
-        <v>38457</v>
+        <v>35193</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>36557</v>
+        <v>36325</v>
       </c>
       <c r="F28" s="1">
         <v>44871</v>
@@ -4568,24 +6965,24 @@
         <v>67</v>
       </c>
       <c r="I28" s="14">
-        <v>36556</v>
+        <v>36324</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="1">
-        <v>34153</v>
+        <v>36211</v>
       </c>
       <c r="F29" s="1">
         <v>44871</v>
@@ -4597,24 +6994,24 @@
         <v>67</v>
       </c>
       <c r="I29" s="14">
-        <v>34152</v>
+        <v>36210</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="1">
-        <v>34429</v>
+        <v>38983</v>
       </c>
       <c r="F30" s="1">
         <v>44871</v>
@@ -4626,24 +7023,24 @@
         <v>67</v>
       </c>
       <c r="I30" s="14">
-        <v>34428</v>
+        <v>38982</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>38359</v>
+        <v>38458</v>
       </c>
       <c r="F31" s="1">
         <v>44871</v>
@@ -4655,24 +7052,24 @@
         <v>67</v>
       </c>
       <c r="I31" s="14">
-        <v>38358</v>
+        <v>38457</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>32455</v>
+        <v>36101</v>
       </c>
       <c r="F32" s="1">
         <v>44871</v>
@@ -4684,24 +7081,24 @@
         <v>67</v>
       </c>
       <c r="I32" s="14">
-        <v>32454</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>39307</v>
+        <v>39166</v>
       </c>
       <c r="F33" s="1">
         <v>44871</v>
@@ -4713,24 +7110,24 @@
         <v>67</v>
       </c>
       <c r="I33" s="14">
-        <v>39306</v>
+        <v>39165</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="1">
-        <v>38660</v>
+        <v>34153</v>
       </c>
       <c r="F34" s="1">
         <v>44871</v>
@@ -4742,24 +7139,24 @@
         <v>67</v>
       </c>
       <c r="I34" s="14">
-        <v>38659</v>
+        <v>34152</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>36388</v>
+        <v>38359</v>
       </c>
       <c r="F35" s="1">
         <v>44871</v>
@@ -4771,24 +7168,24 @@
         <v>67</v>
       </c>
       <c r="I35" s="14">
-        <v>36387</v>
+        <v>38358</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1">
-        <v>38901</v>
+        <v>37171</v>
       </c>
       <c r="F36" s="1">
         <v>44871</v>
@@ -4800,24 +7197,24 @@
         <v>67</v>
       </c>
       <c r="I36" s="14">
-        <v>38900</v>
+        <v>37170</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>33420</v>
+        <v>38143</v>
       </c>
       <c r="F37" s="1">
         <v>44871</v>
@@ -4829,24 +7226,24 @@
         <v>67</v>
       </c>
       <c r="I37" s="14">
-        <v>33419</v>
+        <v>38142</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="1">
-        <v>36101</v>
+        <v>39056</v>
       </c>
       <c r="F38" s="1">
         <v>44871</v>
@@ -4858,7 +7255,7 @@
         <v>67</v>
       </c>
       <c r="I38" s="14">
-        <v>36100</v>
+        <v>39055</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5062,7 +7459,7 @@
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5070,7 +7467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969A5A82-EE21-4DB1-8D92-A9234FC8F241}">
   <dimension ref="A1:K254"/>
   <sheetViews>
@@ -13953,7 +16350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D317B4C0-E325-4DC4-8117-7B3B1323FF8E}">
   <dimension ref="A1:K65"/>
   <sheetViews>
